--- a/xls/success-blocks_world-colin2-0.75.xlsx
+++ b/xls/success-blocks_world-colin2-0.75.xlsx
@@ -891,13 +891,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1415,13 +1421,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1511,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -1544,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -1700,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1715,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -1736,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1853,13 +1865,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -1871,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -1939,13 +1951,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2026,10 +2044,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -2071,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -2182,13 +2200,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -2203,13 +2221,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <f>SUM(C7:L7)</f>
@@ -2242,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -2323,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -2386,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -2404,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <f>SUM(C12:L12)</f>
@@ -2463,13 +2481,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2550,10 +2574,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -2595,13 +2619,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -2706,13 +2730,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -2727,13 +2751,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <f>SUM(C7:L7)</f>
@@ -2766,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -2847,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -2910,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -2928,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <f>SUM(C12:L12)</f>
@@ -2987,13 +3011,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -3083,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -3116,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -3272,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3287,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -3308,10 +3338,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3425,13 +3455,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -3443,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -3511,13 +3541,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4035,13 +4071,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -4559,13 +4601,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -5083,13 +5131,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -5607,13 +5661,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -6131,13 +6191,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -6655,13 +6721,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -7179,13 +7251,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -7703,13 +7781,19 @@
     <mergeCell ref="A3:A12"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M12">
-    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:L13">
-    <cfRule dxfId="0" operator="greaterThan" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>9</formula>
+    <cfRule dxfId="0" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
